--- a/data/trans_orig/dukeCONF-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>28.23223027136201</v>
+        <v>28.27254517342462</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>29.28765964076536</v>
+        <v>29.31815616476093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28.61693448589818</v>
+        <v>28.61887273848316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28.00173075312285</v>
+        <v>28.00327105060031</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>27.56757962681101</v>
+        <v>27.57179451735809</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>29.03016996786871</v>
+        <v>29.03389439138299</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>27.86875568431287</v>
+        <v>27.835662690981</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>27.82372241036885</v>
+        <v>27.82426963324985</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>27.99275646806889</v>
+        <v>27.97282748629382</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29.27469769422858</v>
+        <v>29.25992459632986</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28.3142795150216</v>
+        <v>28.29819737103011</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>28.0144040349128</v>
+        <v>28.00669817494532</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>28.96865769157661</v>
+        <v>29.00981754670016</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30.008331650229</v>
+        <v>30.08168678431727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.3484292449687</v>
+        <v>29.36500207013777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29.09923271747065</v>
+        <v>29.12343969086221</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>28.24752058482664</v>
+        <v>28.23244355283208</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>29.64227029478808</v>
+        <v>29.63046074280282</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>28.56699218096454</v>
+        <v>28.57607648069264</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>28.50767428389103</v>
+        <v>28.52367215357201</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>28.4821354189527</v>
+        <v>28.46948918872225</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29.71831453798204</v>
+        <v>29.7267150539948</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28.79117056862097</v>
+        <v>28.8237760898589</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>28.63045738292519</v>
+        <v>28.65419084571154</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>29.68407825228929</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>30.40601855136373</v>
+        <v>30.40601855136372</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>30.4097717008125</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>30.46999917442559</v>
+        <v>30.46749069503473</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.62766155217203</v>
+        <v>30.63781601168276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.42327260912054</v>
+        <v>29.42672869083865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30.39461764283414</v>
+        <v>30.41323931651828</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>29.87216587811996</v>
+        <v>29.83710826448088</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>29.91491616650837</v>
+        <v>29.90276240843111</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>29.48959705516204</v>
+        <v>29.48013190629732</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>30.17879942543665</v>
+        <v>30.1785905188781</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>30.22111743785081</v>
+        <v>30.23079236272538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30.361911269811</v>
+        <v>30.38068529770855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29.5071237966015</v>
+        <v>29.50985373935486</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>30.37050164469806</v>
+        <v>30.37146024719815</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30.90954709441375</v>
+        <v>30.9255059731316</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31.0373977713004</v>
+        <v>31.06506473135903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29.83471813175933</v>
+        <v>29.82874756125895</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.86904182373984</v>
+        <v>30.88209256748555</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>30.37105314751685</v>
+        <v>30.35811159264451</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.41685415373002</v>
+        <v>30.3934019238535</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>29.88020823829213</v>
+        <v>29.8598773617076</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>30.61731681346571</v>
+        <v>30.59566256114637</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>30.57533619575401</v>
+        <v>30.57545864148326</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30.67734234478646</v>
+        <v>30.71784644127854</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29.78556022239517</v>
+        <v>29.79904411788567</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>30.69945882687734</v>
+        <v>30.67915853045352</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>30.79062305380225</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>31.80991167604401</v>
+        <v>31.809911676044</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>30.74478066020313</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>30.3967137433223</v>
+        <v>30.29010899632884</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>30.76884221545063</v>
+        <v>30.83314409150357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30.42695503982883</v>
+        <v>30.39878971061058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31.04066222733826</v>
+        <v>31.05115503578928</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>30.21540289350266</v>
+        <v>30.14207894448678</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.14437841493589</v>
+        <v>31.10881489855767</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>30.42006748482643</v>
+        <v>30.4422618069671</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>31.52267365020731</v>
+        <v>31.55207948603069</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>30.40593108819666</v>
+        <v>30.42158233662185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31.1315215860033</v>
+        <v>31.12159313976733</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30.52388180974915</v>
+        <v>30.54925412680305</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>31.3894178130624</v>
+        <v>31.38105461682553</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31.18435088439924</v>
+        <v>31.17554742560334</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>31.71991139766459</v>
+        <v>31.75261937597783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31.12586539135508</v>
+        <v>31.11326989252529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31.79533268546676</v>
+        <v>31.83475950896688</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>31.13879158809386</v>
+        <v>31.15235464066843</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>31.92113520806509</v>
+        <v>31.89229900701229</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>31.12827039298405</v>
+        <v>31.12413584619929</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>32.07446301977537</v>
+        <v>32.08070119497506</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>31.05667997720268</v>
+        <v>31.04029298542961</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31.70168202154273</v>
+        <v>31.70940433268397</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31.02103126913994</v>
+        <v>31.06305881007319</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>31.84425129093819</v>
+        <v>31.85835175440441</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>29.85854038507891</v>
+        <v>29.86647373212529</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>30.42038852951485</v>
+        <v>30.4196622827194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29.51121821212751</v>
+        <v>29.51820474007658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30.29854689368993</v>
+        <v>30.28108183925664</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>29.14295016297289</v>
+        <v>29.12512021730131</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.86633738636556</v>
+        <v>29.86185529356942</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>29.28777137829362</v>
+        <v>29.28811582994897</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>30.04192527630808</v>
+        <v>30.02271974824833</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>29.55747508361557</v>
+        <v>29.54501471269719</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30.19636368673999</v>
+        <v>30.17777157368321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29.45102866329398</v>
+        <v>29.4412687396693</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>30.21232684907643</v>
+        <v>30.20861755267174</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>30.24073187587425</v>
+        <v>30.22635044885373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>30.75473549614188</v>
+        <v>30.76594605438982</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29.83161090010819</v>
+        <v>29.84028752528967</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30.6666542593939</v>
+        <v>30.66206399416682</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>29.51611257979186</v>
+        <v>29.51851212348667</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.19835624810433</v>
+        <v>30.21238861194977</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>29.61141421509608</v>
+        <v>29.61946284954158</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>30.35280096249217</v>
+        <v>30.35191531214567</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>29.83852231918814</v>
+        <v>29.82383036844563</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30.42853211709808</v>
+        <v>30.42318666299257</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29.67582451247722</v>
+        <v>29.6689919251701</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>30.45807936014092</v>
+        <v>30.46702511150674</v>
       </c>
     </row>
     <row r="16">
